--- a/InfoLubri_y_RedMas/Auxiliar_Objetivos_y_Envases.xlsx
+++ b/InfoLubri_y_RedMas/Auxiliar_Objetivos_y_Envases.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Informes\InfoLubri_y_RedMas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gmartinez\Desktop\Data_A_Info\Data_A_Info\Info_Lubri_y_RedMas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A376A16-8334-4D3F-A4B7-71867DB35E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13035" windowHeight="12360" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetivos_UEN_Envase" sheetId="1" r:id="rId1"/>
@@ -17,19 +18,31 @@
     <sheet name="Lts_x_Envase" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lts_x_Envase!$A$1:$B$147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Lts_x_Envase!$A$1:$B$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Objetivos_UEN_Envase!$A$1:$C$43</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>UEN</t>
   </si>
@@ -41,423 +54,6 @@
   </si>
   <si>
     <t>CODIGO</t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
-    <t>0002</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1011</t>
-  </si>
-  <si>
-    <t>1012</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>1017</t>
-  </si>
-  <si>
-    <t>1018</t>
-  </si>
-  <si>
-    <t>1019</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>1021</t>
-  </si>
-  <si>
-    <t>1022</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1036</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
-    <t>1038</t>
-  </si>
-  <si>
-    <t>1039</t>
-  </si>
-  <si>
-    <t>1040</t>
-  </si>
-  <si>
-    <t>1041</t>
-  </si>
-  <si>
-    <t>1042</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>1044</t>
-  </si>
-  <si>
-    <t>1102</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>1119</t>
-  </si>
-  <si>
-    <t>1120</t>
-  </si>
-  <si>
-    <t>1121</t>
-  </si>
-  <si>
-    <t>1122</t>
-  </si>
-  <si>
-    <t>1123</t>
-  </si>
-  <si>
-    <t>1124</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1126</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1129</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>1131</t>
-  </si>
-  <si>
-    <t>1132</t>
-  </si>
-  <si>
-    <t>1133</t>
-  </si>
-  <si>
-    <t>1134</t>
-  </si>
-  <si>
-    <t>1135</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>1137</t>
-  </si>
-  <si>
-    <t>1138</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>1141</t>
-  </si>
-  <si>
-    <t>1142</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
-    <t>1145</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>1147</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
-    <t>1149</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1155</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1157</t>
-  </si>
-  <si>
-    <t>1158</t>
-  </si>
-  <si>
-    <t>1159</t>
-  </si>
-  <si>
-    <t>1160</t>
-  </si>
-  <si>
-    <t>1161</t>
-  </si>
-  <si>
-    <t>1162</t>
-  </si>
-  <si>
-    <t>1163</t>
-  </si>
-  <si>
-    <t>1164</t>
-  </si>
-  <si>
-    <t>1165</t>
-  </si>
-  <si>
-    <t>1167</t>
-  </si>
-  <si>
-    <t>1168</t>
-  </si>
-  <si>
-    <t>1169</t>
-  </si>
-  <si>
-    <t>1171</t>
-  </si>
-  <si>
-    <t>1172</t>
-  </si>
-  <si>
-    <t>1173</t>
-  </si>
-  <si>
-    <t>1174</t>
-  </si>
-  <si>
-    <t>1175</t>
-  </si>
-  <si>
-    <t>1181</t>
-  </si>
-  <si>
-    <t>1182</t>
-  </si>
-  <si>
-    <t>1183</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>1191</t>
-  </si>
-  <si>
-    <t>1192</t>
-  </si>
-  <si>
-    <t>1761</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1813</t>
-  </si>
-  <si>
-    <t>1814</t>
-  </si>
-  <si>
-    <t>1815</t>
-  </si>
-  <si>
-    <t>1822</t>
-  </si>
-  <si>
-    <t>1823</t>
-  </si>
-  <si>
-    <t>1824</t>
-  </si>
-  <si>
-    <t>1830</t>
-  </si>
-  <si>
-    <t>1832</t>
-  </si>
-  <si>
-    <t>1833</t>
-  </si>
-  <si>
-    <t>1834</t>
-  </si>
-  <si>
-    <t>1852</t>
-  </si>
-  <si>
-    <t>1862</t>
-  </si>
-  <si>
-    <t>1874</t>
-  </si>
-  <si>
-    <t>1877</t>
-  </si>
-  <si>
-    <t>1883</t>
-  </si>
-  <si>
-    <t>1892</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>1935</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2200</t>
   </si>
   <si>
     <t>Lts_x_Envase</t>
@@ -505,18 +101,6 @@
     <t>VILLANUEVA</t>
   </si>
   <si>
-    <t>1176</t>
-  </si>
-  <si>
-    <t>1185</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>OBJETIVO (lts)</t>
   </si>
   <si>
@@ -526,7 +110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -556,16 +140,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,12 +428,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A41" sqref="A41"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,9 +456,9 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
@@ -887,11 +470,11 @@
         <f>+A2</f>
         <v>ADOLFO CALLE</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +482,7 @@
         <f>+A3</f>
         <v>ADOLFO CALLE</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>20</v>
       </c>
       <c r="C4">
@@ -908,9 +491,9 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
         <v>1</v>
       </c>
       <c r="C5">
@@ -922,11 +505,11 @@
         <f>+A5</f>
         <v>AZCUENAGA</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -934,7 +517,7 @@
         <f>+A6</f>
         <v>AZCUENAGA</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>20</v>
       </c>
       <c r="C7">
@@ -943,9 +526,9 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
@@ -957,11 +540,11 @@
         <f>+A8</f>
         <v>LAMADRID</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>4</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,18 +552,18 @@
         <f>+A9</f>
         <v>LAMADRID</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>20</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
@@ -992,11 +575,11 @@
         <f>A11</f>
         <v>LAS HERAS</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>4</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1004,7 +587,7 @@
         <f>A12</f>
         <v>LAS HERAS</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>20</v>
       </c>
       <c r="C13">
@@ -1013,9 +596,9 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1027,11 +610,11 @@
         <f>+A14</f>
         <v>MERC GUAYMALLEN</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1039,18 +622,18 @@
         <f>+A15</f>
         <v>MERC GUAYMALLEN</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>20</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
-      </c>
-      <c r="B17" s="2">
+        <v>10</v>
+      </c>
+      <c r="B17" s="1">
         <v>1</v>
       </c>
       <c r="C17">
@@ -1062,11 +645,11 @@
         <f>A17</f>
         <v>MERCADO 2</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>4</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1074,18 +657,18 @@
         <f>A18</f>
         <v>MERCADO 2</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>20</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="2">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1097,11 +680,11 @@
         <f>A20</f>
         <v>MITRE</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1109,18 +692,18 @@
         <f>A21</f>
         <v>MITRE</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
         <v>1</v>
       </c>
       <c r="C23">
@@ -1132,11 +715,11 @@
         <f>A23</f>
         <v>PERDRIEL</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>4</v>
       </c>
       <c r="C24">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,18 +727,18 @@
         <f>A24</f>
         <v>PERDRIEL</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>20</v>
       </c>
       <c r="C25">
-        <v>340</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="2">
+        <v>13</v>
+      </c>
+      <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
@@ -1167,11 +750,11 @@
         <f>A26</f>
         <v>PERDRIEL2</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,18 +762,18 @@
         <f>A27</f>
         <v>PERDRIEL2</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>20</v>
       </c>
       <c r="C28">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="2">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29">
@@ -1202,11 +785,11 @@
         <f>A29</f>
         <v>PUENTE OLIVE</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>4</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1214,18 +797,18 @@
         <f>A30</f>
         <v>PUENTE OLIVE</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>20</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="2">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
@@ -1237,11 +820,11 @@
         <f>A32</f>
         <v>SAN JOSE</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,7 +832,7 @@
         <f>A33</f>
         <v>SAN JOSE</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>20</v>
       </c>
       <c r="C34">
@@ -1258,9 +841,9 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B35" s="2">
+        <v>16</v>
+      </c>
+      <c r="B35" s="1">
         <v>1</v>
       </c>
       <c r="C35">
@@ -1272,11 +855,11 @@
         <f>A35</f>
         <v>SARMIENTO</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>4</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,7 +867,7 @@
         <f>A36</f>
         <v>SARMIENTO</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>20</v>
       </c>
       <c r="C37">
@@ -1293,9 +876,9 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>156</v>
-      </c>
-      <c r="B38" s="2">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
         <v>1</v>
       </c>
       <c r="C38">
@@ -1307,11 +890,11 @@
         <f>A38</f>
         <v>URQUIZA</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="1">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1319,7 +902,7 @@
         <f>A39</f>
         <v>URQUIZA</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="1">
         <v>20</v>
       </c>
       <c r="C40">
@@ -1328,9 +911,9 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>157</v>
-      </c>
-      <c r="B41" s="2">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1">
         <v>1</v>
       </c>
       <c r="C41">
@@ -1342,11 +925,11 @@
         <f>A41</f>
         <v>VILLANUEVA</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="1">
         <v>4</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1354,7 +937,7 @@
         <f>A42</f>
         <v>VILLANUEVA</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>20</v>
       </c>
       <c r="C43">
@@ -1362,17 +945,18 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,14 +966,14 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2">
@@ -1398,21 +982,21 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>4</v>
       </c>
       <c r="B3">
         <f>+SUMIF(Objetivos_UEN_Envase!$B$2:$B$43,Objetivos_x_Envase!A3,Objetivos_UEN_Envase!$C$2:$C$43)</f>
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>20</v>
       </c>
       <c r="B4">
         <f>+SUMIF(Objetivos_UEN_Envase!$B$2:$B$43,Objetivos_x_Envase!A4,Objetivos_UEN_Envase!$C$2:$C$43)</f>
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1421,12 +1005,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120:B120"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,1181 +1020,1301 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
+      <c r="A6">
+        <v>1001</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
+      <c r="A7">
+        <v>1002</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
+      <c r="A8">
+        <v>1003</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
+      <c r="A9">
+        <v>1005</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
+      <c r="A10">
+        <v>1006</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="A11">
+        <v>1007</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="A12">
+        <v>1008</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
+      <c r="A13">
+        <v>1009</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
+      <c r="A14">
+        <v>1010</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
+      <c r="A15">
+        <v>1011</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
+      <c r="A16">
+        <v>1012</v>
       </c>
       <c r="B16">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
+      <c r="A17">
+        <v>1013</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
+      <c r="A18">
+        <v>1014</v>
       </c>
       <c r="B18">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>21</v>
+      <c r="A19">
+        <v>1015</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
+      <c r="A20">
+        <v>1017</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>23</v>
+      <c r="A21">
+        <v>1018</v>
       </c>
       <c r="B21">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
+      <c r="A22">
+        <v>1019</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>25</v>
+      <c r="A23">
+        <v>1020</v>
       </c>
       <c r="B23">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>26</v>
+      <c r="A24">
+        <v>1021</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
+      <c r="A25">
+        <v>1022</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>28</v>
+      <c r="A26">
+        <v>1027</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>29</v>
+      <c r="A27">
+        <v>1032</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
+      <c r="A28">
+        <v>1034</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>31</v>
+      <c r="A29">
+        <v>1036</v>
       </c>
       <c r="B29">
         <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
+      <c r="A30">
+        <v>1037</v>
       </c>
       <c r="B30">
         <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
+      <c r="A31">
+        <v>1038</v>
       </c>
       <c r="B31">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>34</v>
+      <c r="A32">
+        <v>1039</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
+      <c r="A33">
+        <v>1040</v>
       </c>
       <c r="B33">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>36</v>
+      <c r="A34">
+        <v>1041</v>
       </c>
       <c r="B34">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>37</v>
+      <c r="A35">
+        <v>1042</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>38</v>
+      <c r="A36">
+        <v>1043</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>39</v>
+      <c r="A37">
+        <v>1044</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>40</v>
+      <c r="A38">
+        <v>1102</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
+      <c r="A39">
+        <v>1103</v>
       </c>
       <c r="B39">
         <v>0.2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>42</v>
+      <c r="A40">
+        <v>1104</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>43</v>
+      <c r="A41">
+        <v>1114</v>
       </c>
       <c r="B41">
         <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>44</v>
+      <c r="A42">
+        <v>1116</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>45</v>
+      <c r="A43">
+        <v>1117</v>
       </c>
       <c r="B43">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>46</v>
+      <c r="A44">
+        <v>1118</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>47</v>
+      <c r="A45">
+        <v>1119</v>
       </c>
       <c r="B45">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>48</v>
+      <c r="A46">
+        <v>1120</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
+      <c r="A47">
+        <v>1121</v>
       </c>
       <c r="B47">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>50</v>
+      <c r="A48">
+        <v>1122</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>51</v>
+      <c r="A49">
+        <v>1123</v>
       </c>
       <c r="B49">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>52</v>
+      <c r="A50">
+        <v>1124</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>53</v>
+      <c r="A51">
+        <v>1125</v>
       </c>
       <c r="B51">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
+      <c r="A52">
+        <v>1126</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
+      <c r="A53">
+        <v>1127</v>
       </c>
       <c r="B53">
         <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>56</v>
+      <c r="A54">
+        <v>1128</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>57</v>
+      <c r="A55">
+        <v>1129</v>
       </c>
       <c r="B55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>58</v>
+      <c r="A56">
+        <v>1130</v>
       </c>
       <c r="B56">
         <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
+      <c r="A57">
+        <v>1131</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>60</v>
+      <c r="A58">
+        <v>1132</v>
       </c>
       <c r="B58">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
+      <c r="A59">
+        <v>1133</v>
       </c>
       <c r="B59">
         <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>62</v>
+      <c r="A60">
+        <v>1134</v>
       </c>
       <c r="B60">
         <v>0.5</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>63</v>
+      <c r="A61">
+        <v>1135</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>64</v>
+      <c r="A62">
+        <v>1136</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>65</v>
+      <c r="A63">
+        <v>1137</v>
       </c>
       <c r="B63">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>66</v>
+      <c r="A64">
+        <v>1138</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>67</v>
+      <c r="A65">
+        <v>1139</v>
       </c>
       <c r="B65">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>68</v>
+      <c r="A66">
+        <v>1140</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
+      <c r="A67">
+        <v>1141</v>
       </c>
       <c r="B67">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>70</v>
+      <c r="A68">
+        <v>1142</v>
       </c>
       <c r="B68">
         <v>0.22</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>71</v>
+      <c r="A69">
+        <v>1143</v>
       </c>
       <c r="B69">
         <v>0.2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>72</v>
+      <c r="A70">
+        <v>1144</v>
       </c>
       <c r="B70">
         <v>20</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>73</v>
+      <c r="A71">
+        <v>1145</v>
       </c>
       <c r="B71">
         <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>74</v>
+      <c r="A72">
+        <v>1146</v>
       </c>
       <c r="B72">
         <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>75</v>
+      <c r="A73">
+        <v>1147</v>
       </c>
       <c r="B73">
         <v>20</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>76</v>
+      <c r="A74">
+        <v>1148</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>77</v>
+      <c r="A75">
+        <v>1149</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>78</v>
+      <c r="A76">
+        <v>1150</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>78</v>
+      <c r="A77">
+        <v>1150</v>
       </c>
       <c r="B77">
         <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>79</v>
+      <c r="A78">
+        <v>1151</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>80</v>
+      <c r="A79">
+        <v>1152</v>
       </c>
       <c r="B79">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>81</v>
+      <c r="A80">
+        <v>1155</v>
       </c>
       <c r="B80">
         <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>82</v>
+      <c r="A81">
+        <v>1156</v>
       </c>
       <c r="B81">
         <v>205</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>83</v>
+      <c r="A82">
+        <v>1157</v>
       </c>
       <c r="B82">
         <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>84</v>
+      <c r="A83">
+        <v>1158</v>
       </c>
       <c r="B83">
         <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>85</v>
+      <c r="A84">
+        <v>1159</v>
       </c>
       <c r="B84">
         <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>86</v>
+      <c r="A85">
+        <v>1160</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>87</v>
+      <c r="A86">
+        <v>1161</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>88</v>
+      <c r="A87">
+        <v>1162</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>89</v>
+      <c r="A88">
+        <v>1163</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>90</v>
+      <c r="A89">
+        <v>1164</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>91</v>
+      <c r="A90">
+        <v>1165</v>
       </c>
       <c r="B90">
         <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>92</v>
+      <c r="A91">
+        <v>1167</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>93</v>
+      <c r="A92">
+        <v>1168</v>
       </c>
       <c r="B92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>93</v>
+      <c r="A93">
+        <v>1168</v>
       </c>
       <c r="B93">
         <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>94</v>
+      <c r="A94">
+        <v>1169</v>
       </c>
       <c r="B94">
         <v>20</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>95</v>
+      <c r="A95">
+        <v>1171</v>
       </c>
       <c r="B95">
         <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>96</v>
+      <c r="A96">
+        <v>1172</v>
       </c>
       <c r="B96">
         <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>97</v>
+      <c r="A97">
+        <v>1173</v>
       </c>
       <c r="B97">
         <v>180</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>98</v>
+      <c r="A98">
+        <v>1174</v>
       </c>
       <c r="B98">
         <v>20</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>99</v>
+      <c r="A99">
+        <v>1175</v>
       </c>
       <c r="B99">
         <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="4" t="s">
-        <v>158</v>
+      <c r="A100" s="3">
+        <v>1176</v>
       </c>
       <c r="B100">
         <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>100</v>
+      <c r="A101">
+        <v>1181</v>
       </c>
       <c r="B101">
         <v>20</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>101</v>
+      <c r="A102">
+        <v>1182</v>
       </c>
       <c r="B102">
         <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>102</v>
+      <c r="A103">
+        <v>1183</v>
       </c>
       <c r="B103">
         <v>20</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>159</v>
+      <c r="A104">
+        <v>1185</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>103</v>
+      <c r="A105" s="3">
+        <v>1189</v>
       </c>
       <c r="B105">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>104</v>
+      <c r="A106">
+        <v>1190</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>105</v>
+      <c r="A107">
+        <v>1191</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1192</v>
+      </c>
+      <c r="B108">
         <v>0.44</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>20</v>
-      </c>
-    </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>107</v>
+      <c r="A109">
+        <v>1761</v>
       </c>
       <c r="B109">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>108</v>
+      <c r="A110">
+        <v>1804</v>
       </c>
       <c r="B110">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>109</v>
+      <c r="A111">
+        <v>1805</v>
       </c>
       <c r="B111">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>110</v>
+      <c r="A112">
+        <v>1812</v>
       </c>
       <c r="B112">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>111</v>
+      <c r="A113">
+        <v>1813</v>
       </c>
       <c r="B113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1814</v>
+      </c>
+      <c r="B114">
         <v>205</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B114">
-        <v>20</v>
-      </c>
-    </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>113</v>
+      <c r="A115">
+        <v>1815</v>
       </c>
       <c r="B115">
         <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>114</v>
+      <c r="A116">
+        <v>1822</v>
       </c>
       <c r="B116">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>115</v>
+      <c r="A117">
+        <v>1823</v>
       </c>
       <c r="B117">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>116</v>
+      <c r="A118">
+        <v>1824</v>
       </c>
       <c r="B118">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>117</v>
+      <c r="A119">
+        <v>1830</v>
       </c>
       <c r="B119">
         <v>20</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>118</v>
+      <c r="A120">
+        <v>1832</v>
       </c>
       <c r="B120">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>119</v>
+      <c r="A121">
+        <v>1833</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
-        <v>120</v>
+      <c r="A122">
+        <v>1834</v>
       </c>
       <c r="B122">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
-        <v>121</v>
+      <c r="A123">
+        <v>1852</v>
       </c>
       <c r="B123">
         <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>122</v>
+      <c r="A124">
+        <v>1862</v>
       </c>
       <c r="B124">
         <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
-        <v>123</v>
+      <c r="A125">
+        <v>1874</v>
       </c>
       <c r="B125">
         <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
-        <v>124</v>
+      <c r="A126">
+        <v>1877</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>125</v>
+      <c r="A127">
+        <v>1883</v>
       </c>
       <c r="B127">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>126</v>
+      <c r="A128">
+        <v>1892</v>
       </c>
       <c r="B128">
         <v>18</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>127</v>
+      <c r="A129">
+        <v>1893</v>
       </c>
       <c r="B129">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>128</v>
+      <c r="A130">
+        <v>1935</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2000</v>
+      </c>
+      <c r="B131">
         <v>1000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>1</v>
-      </c>
-    </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
-        <v>130</v>
+      <c r="A132">
+        <v>2001</v>
       </c>
       <c r="B132">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>131</v>
+      <c r="A133">
+        <v>2002</v>
       </c>
       <c r="B133">
         <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>132</v>
+      <c r="A134">
+        <v>2003</v>
       </c>
       <c r="B134">
         <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>133</v>
+      <c r="A135">
+        <v>2004</v>
       </c>
       <c r="B135">
         <v>20</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>134</v>
+      <c r="A136">
+        <v>2005</v>
       </c>
       <c r="B136">
         <v>20</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>135</v>
+      <c r="A137">
+        <v>2006</v>
       </c>
       <c r="B137">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2007</v>
+      </c>
+      <c r="B138">
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>1</v>
-      </c>
-    </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>136</v>
+      <c r="A139">
+        <v>2008</v>
       </c>
       <c r="B139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2008</v>
+      </c>
+      <c r="B140">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B140">
-        <v>1</v>
-      </c>
-    </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>160</v>
+      <c r="A141">
+        <v>2013</v>
       </c>
       <c r="B141">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>138</v>
+      <c r="A142" s="3">
+        <v>2015</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>139</v>
+      <c r="A143">
+        <v>2016</v>
       </c>
       <c r="B143">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>140</v>
+      <c r="A144">
+        <v>2017</v>
       </c>
       <c r="B144">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>141</v>
+      <c r="A145">
+        <v>2018</v>
       </c>
       <c r="B145">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="4" t="s">
-        <v>161</v>
+      <c r="A146">
+        <v>2021</v>
       </c>
       <c r="B146">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>142</v>
+      <c r="A147" s="3">
+        <v>2024</v>
       </c>
       <c r="B147">
-        <v>20</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2200</v>
+      </c>
+      <c r="B148">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1194</v>
+      </c>
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1196</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1198</v>
+      </c>
+      <c r="B151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1200</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>1202</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>1206</v>
+      </c>
+      <c r="B154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>1207</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>1209</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1211</v>
+      </c>
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1213</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>1216</v>
+      </c>
+      <c r="B159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>1210</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>1212</v>
+      </c>
+      <c r="B161">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>1214</v>
+      </c>
+      <c r="B162">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B147">
-    <sortState ref="A2:B146">
-      <sortCondition ref="A1:A146"/>
+  <autoFilter ref="A1:B148" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B147">
+      <sortCondition ref="A1:A147"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
